--- a/InputData/trans/AVL/Avg Vehicle Lifetime.xlsx
+++ b/InputData/trans/AVL/Avg Vehicle Lifetime.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaggarwal/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/CO/trans/AVL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\trans\AVL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B59AF99A-726F-794F-B20E-CDFC1FFC60FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69256AD-FE6B-4887-8CE4-2C356C7F1BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="857">
   <si>
     <t>Car Avg Lifetime, years (Page 22, Table 7)</t>
   </si>
@@ -2641,9 +2641,6 @@
   <si>
     <t>no data</t>
   </si>
-  <si>
-    <t>Colorado</t>
-  </si>
 </sst>
 </file>
 
@@ -2657,7 +2654,7 @@
     <numFmt numFmtId="168" formatCode="\(\R\)0.0"/>
     <numFmt numFmtId="169" formatCode="#,##0_)"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3545,7 +3542,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3721,16 +3718,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3745,15 +3742,14 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="1" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="62">
     <cellStyle name="20% - Accent1" xfId="35" builtinId="30" customBuiltin="1"/>
@@ -3863,7 +3859,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4183,27 +4179,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="132.33203125" customWidth="1"/>
+    <col min="2" max="2" width="132.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" t="s">
-        <v>857</v>
-      </c>
-      <c r="C1" s="75">
-        <v>44907</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
@@ -4211,232 +4201,232 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
         <v>2006</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <v>2016</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="9">
         <v>2015</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="9">
         <v>2019</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="9">
         <v>2013</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="9">
         <v>2009</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>99</v>
       </c>
@@ -4461,29 +4451,29 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>105</v>
       </c>
@@ -4590,17 +4580,17 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>111</v>
       </c>
@@ -4703,11 +4693,11 @@
       <c r="AI8">
         <v>2424.7546390000002</v>
       </c>
-      <c r="AJ8" s="71">
+      <c r="AJ8" s="79">
         <v>-2.3E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -4810,11 +4800,11 @@
       <c r="AI9">
         <v>3.8241999999999998E-2</v>
       </c>
-      <c r="AJ9" s="71">
+      <c r="AJ9" s="79">
         <v>-1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>118</v>
       </c>
@@ -4917,16 +4907,16 @@
       <c r="AI10">
         <v>2424.7929690000001</v>
       </c>
-      <c r="AJ10" s="71">
+      <c r="AJ10" s="79">
         <v>-2.3E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>122</v>
       </c>
@@ -5029,11 +5019,11 @@
       <c r="AI12">
         <v>38.713805999999998</v>
       </c>
-      <c r="AJ12" s="71">
+      <c r="AJ12" s="79">
         <v>-0.02</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>125</v>
       </c>
@@ -5136,11 +5126,11 @@
       <c r="AI13">
         <v>5.4546510000000001</v>
       </c>
-      <c r="AJ13" s="71">
+      <c r="AJ13" s="79">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>128</v>
       </c>
@@ -5243,11 +5233,11 @@
       <c r="AI14">
         <v>76.511939999999996</v>
       </c>
-      <c r="AJ14" s="71">
+      <c r="AJ14" s="79">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>131</v>
       </c>
@@ -5350,11 +5340,11 @@
       <c r="AI15">
         <v>370.38699300000002</v>
       </c>
-      <c r="AJ15" s="71">
+      <c r="AJ15" s="79">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>134</v>
       </c>
@@ -5457,11 +5447,11 @@
       <c r="AI16">
         <v>55.769160999999997</v>
       </c>
-      <c r="AJ16" s="71">
+      <c r="AJ16" s="79">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>137</v>
       </c>
@@ -5564,11 +5554,11 @@
       <c r="AI17">
         <v>8.8705390000000008</v>
       </c>
-      <c r="AJ17" s="71">
+      <c r="AJ17" s="79">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>139</v>
       </c>
@@ -5675,7 +5665,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>143</v>
       </c>
@@ -5778,11 +5768,11 @@
       <c r="AI19">
         <v>365.604401</v>
       </c>
-      <c r="AJ19" s="71">
+      <c r="AJ19" s="79">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>146</v>
       </c>
@@ -5885,11 +5875,11 @@
       <c r="AI20">
         <v>0.14146400000000001</v>
       </c>
-      <c r="AJ20" s="71">
+      <c r="AJ20" s="79">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>149</v>
       </c>
@@ -5992,11 +5982,11 @@
       <c r="AI21">
         <v>7.9021999999999995E-2</v>
       </c>
-      <c r="AJ21" s="71">
+      <c r="AJ21" s="79">
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>152</v>
       </c>
@@ -6099,11 +6089,11 @@
       <c r="AI22">
         <v>0.139824</v>
       </c>
-      <c r="AJ22" s="71">
+      <c r="AJ22" s="79">
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>155</v>
       </c>
@@ -6206,11 +6196,11 @@
       <c r="AI23">
         <v>2.5838E-2</v>
       </c>
-      <c r="AJ23" s="71">
+      <c r="AJ23" s="79">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>157</v>
       </c>
@@ -6317,7 +6307,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>160</v>
       </c>
@@ -6420,11 +6410,11 @@
       <c r="AI25">
         <v>7.5094289999999999</v>
       </c>
-      <c r="AJ25" s="71">
+      <c r="AJ25" s="79">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>163</v>
       </c>
@@ -6527,11 +6517,11 @@
       <c r="AI26">
         <v>929.20703100000003</v>
       </c>
-      <c r="AJ26" s="71">
+      <c r="AJ26" s="79">
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>166</v>
       </c>
@@ -6634,11 +6624,11 @@
       <c r="AI27">
         <v>27.704445</v>
       </c>
-      <c r="AJ27" s="71">
+      <c r="AJ27" s="79">
         <v>0.03</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>170</v>
       </c>
@@ -6741,21 +6731,21 @@
       <c r="AI28">
         <v>3354</v>
       </c>
-      <c r="AJ28" s="71">
+      <c r="AJ28" s="79">
         <v>-1.6E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>111</v>
       </c>
@@ -6858,11 +6848,11 @@
       <c r="AI31">
         <v>7308.4360349999997</v>
       </c>
-      <c r="AJ31" s="71">
+      <c r="AJ31" s="79">
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>115</v>
       </c>
@@ -6965,11 +6955,11 @@
       <c r="AI32">
         <v>53.209235999999997</v>
       </c>
-      <c r="AJ32" s="71">
+      <c r="AJ32" s="79">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>179</v>
       </c>
@@ -7072,16 +7062,16 @@
       <c r="AI33">
         <v>7361.6455079999996</v>
       </c>
-      <c r="AJ33" s="71">
+      <c r="AJ33" s="79">
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>122</v>
       </c>
@@ -7184,11 +7174,11 @@
       <c r="AI35">
         <v>521.65747099999999</v>
       </c>
-      <c r="AJ35" s="71">
+      <c r="AJ35" s="79">
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>125</v>
       </c>
@@ -7295,7 +7285,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>128</v>
       </c>
@@ -7398,11 +7388,11 @@
       <c r="AI37">
         <v>133.894745</v>
       </c>
-      <c r="AJ37" s="71">
+      <c r="AJ37" s="79">
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>131</v>
       </c>
@@ -7505,11 +7495,11 @@
       <c r="AI38">
         <v>573.33343500000001</v>
       </c>
-      <c r="AJ38" s="71">
+      <c r="AJ38" s="79">
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>134</v>
       </c>
@@ -7612,11 +7602,11 @@
       <c r="AI39">
         <v>77.354256000000007</v>
       </c>
-      <c r="AJ39" s="71">
+      <c r="AJ39" s="79">
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>137</v>
       </c>
@@ -7719,11 +7709,11 @@
       <c r="AI40">
         <v>257.30136099999999</v>
       </c>
-      <c r="AJ40" s="71">
+      <c r="AJ40" s="79">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>139</v>
       </c>
@@ -7830,7 +7820,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>143</v>
       </c>
@@ -7933,11 +7923,11 @@
       <c r="AI42">
         <v>601.24218800000006</v>
       </c>
-      <c r="AJ42" s="71">
+      <c r="AJ42" s="79">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>146</v>
       </c>
@@ -8040,11 +8030,11 @@
       <c r="AI43">
         <v>0.29115400000000002</v>
       </c>
-      <c r="AJ43" s="71">
+      <c r="AJ43" s="79">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>149</v>
       </c>
@@ -8147,11 +8137,11 @@
       <c r="AI44">
         <v>5.3215999999999999E-2</v>
       </c>
-      <c r="AJ44" s="71">
+      <c r="AJ44" s="79">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>152</v>
       </c>
@@ -8254,11 +8244,11 @@
       <c r="AI45">
         <v>1.6329180000000001</v>
       </c>
-      <c r="AJ45" s="71">
+      <c r="AJ45" s="79">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>155</v>
       </c>
@@ -8361,11 +8351,11 @@
       <c r="AI46">
         <v>1.0041E-2</v>
       </c>
-      <c r="AJ46" s="71">
+      <c r="AJ46" s="79">
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>157</v>
       </c>
@@ -8472,7 +8462,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>160</v>
       </c>
@@ -8575,11 +8565,11 @@
       <c r="AI48">
         <v>0.245919</v>
       </c>
-      <c r="AJ48" s="71">
+      <c r="AJ48" s="79">
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>209</v>
       </c>
@@ -8682,11 +8672,11 @@
       <c r="AI49">
         <v>2167.0166020000001</v>
       </c>
-      <c r="AJ49" s="71">
+      <c r="AJ49" s="79">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>212</v>
       </c>
@@ -8789,11 +8779,11 @@
       <c r="AI50">
         <v>22.742086</v>
       </c>
-      <c r="AJ50" s="71">
+      <c r="AJ50" s="79">
         <v>0.02</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>215</v>
       </c>
@@ -8896,11 +8886,11 @@
       <c r="AI51">
         <v>9528.6621090000008</v>
       </c>
-      <c r="AJ51" s="71">
+      <c r="AJ51" s="79">
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>218</v>
       </c>
@@ -9003,11 +8993,11 @@
       <c r="AI52">
         <v>24.034039</v>
       </c>
-      <c r="AJ52" s="71">
+      <c r="AJ52" s="79">
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>221</v>
       </c>
@@ -9110,11 +9100,11 @@
       <c r="AI53">
         <v>147.26542699999999</v>
       </c>
-      <c r="AJ53" s="71">
+      <c r="AJ53" s="79">
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>224</v>
       </c>
@@ -9221,7 +9211,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>227</v>
       </c>
@@ -9229,7 +9219,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>229</v>
       </c>
@@ -9332,11 +9322,11 @@
       <c r="AI56">
         <v>9733.1904300000006</v>
       </c>
-      <c r="AJ56" s="71">
+      <c r="AJ56" s="79">
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>232</v>
       </c>
@@ -9439,11 +9429,11 @@
       <c r="AI57">
         <v>53.247481999999998</v>
       </c>
-      <c r="AJ57" s="71">
+      <c r="AJ57" s="79">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>235</v>
       </c>
@@ -9546,11 +9536,11 @@
       <c r="AI58">
         <v>560.37127699999996</v>
       </c>
-      <c r="AJ58" s="71">
+      <c r="AJ58" s="79">
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>238</v>
       </c>
@@ -9653,11 +9643,11 @@
       <c r="AI59">
         <v>1159.5817870000001</v>
       </c>
-      <c r="AJ59" s="71">
+      <c r="AJ59" s="79">
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>241</v>
       </c>
@@ -9760,11 +9750,11 @@
       <c r="AI60">
         <v>399.29531900000001</v>
       </c>
-      <c r="AJ60" s="71">
+      <c r="AJ60" s="79">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>244</v>
       </c>
@@ -9867,11 +9857,11 @@
       <c r="AI61">
         <v>966.84655799999996</v>
       </c>
-      <c r="AJ61" s="71">
+      <c r="AJ61" s="79">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>247</v>
       </c>
@@ -9974,11 +9964,11 @@
       <c r="AI62">
         <v>2.3734769999999998</v>
       </c>
-      <c r="AJ62" s="71">
+      <c r="AJ62" s="79">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>250</v>
       </c>
@@ -10081,11 +10071,11 @@
       <c r="AI63">
         <v>7.7553479999999997</v>
       </c>
-      <c r="AJ63" s="71">
+      <c r="AJ63" s="79">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>253</v>
       </c>
@@ -10188,11 +10178,11 @@
       <c r="AI64">
         <v>12882.662109000001</v>
       </c>
-      <c r="AJ64" s="71">
+      <c r="AJ64" s="79">
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>256</v>
       </c>
@@ -10295,11 +10285,11 @@
       <c r="AI65">
         <v>5189.8833009999998</v>
       </c>
-      <c r="AJ65" s="71">
+      <c r="AJ65" s="79">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>259</v>
       </c>
@@ -10406,7 +10396,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>262</v>
       </c>
@@ -10509,7 +10499,7 @@
       <c r="AI67">
         <v>8339.3544920000004</v>
       </c>
-      <c r="AJ67" s="71">
+      <c r="AJ67" s="79">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
@@ -10524,29 +10514,29 @@
   <sheetViews>
     <sheetView topLeftCell="A187" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>105</v>
       </c>
@@ -10653,22 +10643,22 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>270</v>
       </c>
@@ -10771,11 +10761,11 @@
       <c r="AI9">
         <v>53.579211999999998</v>
       </c>
-      <c r="AJ9" s="71">
+      <c r="AJ9" s="79">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>274</v>
       </c>
@@ -10878,11 +10868,11 @@
       <c r="AI10">
         <v>41.361449999999998</v>
       </c>
-      <c r="AJ10" s="71">
+      <c r="AJ10" s="79">
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>277</v>
       </c>
@@ -10985,11 +10975,11 @@
       <c r="AI11">
         <v>0.251222</v>
       </c>
-      <c r="AJ11" s="71">
+      <c r="AJ11" s="79">
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>280</v>
       </c>
@@ -11092,11 +11082,11 @@
       <c r="AI12">
         <v>5.6625000000000002E-2</v>
       </c>
-      <c r="AJ12" s="71">
+      <c r="AJ12" s="79">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>283</v>
       </c>
@@ -11199,11 +11189,11 @@
       <c r="AI13">
         <v>1.332978</v>
       </c>
-      <c r="AJ13" s="71">
+      <c r="AJ13" s="79">
         <v>-3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>238</v>
       </c>
@@ -11306,11 +11296,11 @@
       <c r="AI14">
         <v>9.0399999999999996E-4</v>
       </c>
-      <c r="AJ14" s="71">
+      <c r="AJ14" s="79">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>288</v>
       </c>
@@ -11413,11 +11403,11 @@
       <c r="AI15">
         <v>0.25754500000000002</v>
       </c>
-      <c r="AJ15" s="71">
+      <c r="AJ15" s="79">
         <v>0.13</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>291</v>
       </c>
@@ -11520,11 +11510,11 @@
       <c r="AI16">
         <v>0.26846900000000001</v>
       </c>
-      <c r="AJ16" s="71">
+      <c r="AJ16" s="79">
         <v>0.13</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>250</v>
       </c>
@@ -11627,11 +11617,11 @@
       <c r="AI17">
         <v>1.1E-5</v>
       </c>
-      <c r="AJ17" s="71">
+      <c r="AJ17" s="79">
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>296</v>
       </c>
@@ -11734,16 +11724,16 @@
       <c r="AI18">
         <v>97.107994000000005</v>
       </c>
-      <c r="AJ18" s="71">
+      <c r="AJ18" s="79">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>270</v>
       </c>
@@ -11846,11 +11836,11 @@
       <c r="AI20">
         <v>58.752388000000003</v>
       </c>
-      <c r="AJ20" s="71">
+      <c r="AJ20" s="79">
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>274</v>
       </c>
@@ -11953,11 +11943,11 @@
       <c r="AI21">
         <v>20.298366999999999</v>
       </c>
-      <c r="AJ21" s="71">
+      <c r="AJ21" s="79">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>277</v>
       </c>
@@ -12060,11 +12050,11 @@
       <c r="AI22">
         <v>0.183675</v>
       </c>
-      <c r="AJ22" s="71">
+      <c r="AJ22" s="79">
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>280</v>
       </c>
@@ -12167,11 +12157,11 @@
       <c r="AI23">
         <v>0.22654099999999999</v>
       </c>
-      <c r="AJ23" s="71">
+      <c r="AJ23" s="79">
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>283</v>
       </c>
@@ -12274,11 +12264,11 @@
       <c r="AI24">
         <v>3.495403</v>
       </c>
-      <c r="AJ24" s="71">
+      <c r="AJ24" s="79">
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>238</v>
       </c>
@@ -12381,11 +12371,11 @@
       <c r="AI25">
         <v>1.7279999999999999E-3</v>
       </c>
-      <c r="AJ25" s="71">
+      <c r="AJ25" s="79">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>288</v>
       </c>
@@ -12488,11 +12478,11 @@
       <c r="AI26">
         <v>0.202599</v>
       </c>
-      <c r="AJ26" s="71">
+      <c r="AJ26" s="79">
         <v>0.127</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>291</v>
       </c>
@@ -12595,11 +12585,11 @@
       <c r="AI27">
         <v>0.191775</v>
       </c>
-      <c r="AJ27" s="71">
+      <c r="AJ27" s="79">
         <v>0.127</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>250</v>
       </c>
@@ -12702,11 +12692,11 @@
       <c r="AI28">
         <v>0.30974699999999999</v>
       </c>
-      <c r="AJ28" s="71">
+      <c r="AJ28" s="79">
         <v>0.127</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>318</v>
       </c>
@@ -12809,16 +12799,16 @@
       <c r="AI29">
         <v>83.661620999999997</v>
       </c>
-      <c r="AJ29" s="71">
+      <c r="AJ29" s="79">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>270</v>
       </c>
@@ -12921,11 +12911,11 @@
       <c r="AI31">
         <v>164.258163</v>
       </c>
-      <c r="AJ31" s="71">
+      <c r="AJ31" s="79">
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>274</v>
       </c>
@@ -13028,11 +13018,11 @@
       <c r="AI32">
         <v>5.9670000000000001E-2</v>
       </c>
-      <c r="AJ32" s="71">
+      <c r="AJ32" s="79">
         <v>-3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>277</v>
       </c>
@@ -13135,11 +13125,11 @@
       <c r="AI33">
         <v>5.4940000000000003E-2</v>
       </c>
-      <c r="AJ33" s="71">
+      <c r="AJ33" s="79">
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>280</v>
       </c>
@@ -13242,11 +13232,11 @@
       <c r="AI34">
         <v>3.7279309999999999</v>
       </c>
-      <c r="AJ34" s="71">
+      <c r="AJ34" s="79">
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>283</v>
       </c>
@@ -13353,7 +13343,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>238</v>
       </c>
@@ -13456,11 +13446,11 @@
       <c r="AI36">
         <v>3.7100000000000002E-4</v>
       </c>
-      <c r="AJ36" s="71">
+      <c r="AJ36" s="79">
         <v>-6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>288</v>
       </c>
@@ -13563,11 +13553,11 @@
       <c r="AI37">
         <v>5.3749999999999999E-2</v>
       </c>
-      <c r="AJ37" s="71">
+      <c r="AJ37" s="79">
         <v>0.115</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>291</v>
       </c>
@@ -13670,11 +13660,11 @@
       <c r="AI38">
         <v>6.1294000000000001E-2</v>
       </c>
-      <c r="AJ38" s="71">
+      <c r="AJ38" s="79">
         <v>0.115</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>250</v>
       </c>
@@ -13777,11 +13767,11 @@
       <c r="AI39">
         <v>6.7262000000000002E-2</v>
       </c>
-      <c r="AJ39" s="71">
+      <c r="AJ39" s="79">
         <v>0.115</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>340</v>
       </c>
@@ -13884,11 +13874,11 @@
       <c r="AI40">
         <v>168.282715</v>
       </c>
-      <c r="AJ40" s="71">
+      <c r="AJ40" s="79">
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>343</v>
       </c>
@@ -13991,21 +13981,21 @@
       <c r="AI41">
         <v>349.05163599999997</v>
       </c>
-      <c r="AJ41" s="71">
+      <c r="AJ41" s="79">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>270</v>
       </c>
@@ -14108,11 +14098,11 @@
       <c r="AI44">
         <v>408.36508199999997</v>
       </c>
-      <c r="AJ44" s="71">
+      <c r="AJ44" s="79">
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>274</v>
       </c>
@@ -14215,11 +14205,11 @@
       <c r="AI45">
         <v>357.386169</v>
       </c>
-      <c r="AJ45" s="71">
+      <c r="AJ45" s="79">
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>277</v>
       </c>
@@ -14322,11 +14312,11 @@
       <c r="AI46">
         <v>2.2164280000000001</v>
       </c>
-      <c r="AJ46" s="71">
+      <c r="AJ46" s="79">
         <v>0.112</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>280</v>
       </c>
@@ -14429,11 +14419,11 @@
       <c r="AI47">
         <v>0.50475999999999999</v>
       </c>
-      <c r="AJ47" s="71">
+      <c r="AJ47" s="79">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>283</v>
       </c>
@@ -14536,11 +14526,11 @@
       <c r="AI48">
         <v>15.259402</v>
       </c>
-      <c r="AJ48" s="71">
+      <c r="AJ48" s="79">
         <v>-3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>238</v>
       </c>
@@ -14643,11 +14633,11 @@
       <c r="AI49">
         <v>4.3449999999999999E-3</v>
       </c>
-      <c r="AJ49" s="71">
+      <c r="AJ49" s="79">
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>288</v>
       </c>
@@ -14750,11 +14740,11 @@
       <c r="AI50">
         <v>1.247576</v>
       </c>
-      <c r="AJ50" s="71">
+      <c r="AJ50" s="79">
         <v>0.121</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>291</v>
       </c>
@@ -14857,11 +14847,11 @@
       <c r="AI51">
         <v>1.6064579999999999</v>
       </c>
-      <c r="AJ51" s="71">
+      <c r="AJ51" s="79">
         <v>0.127</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>250</v>
       </c>
@@ -14964,11 +14954,11 @@
       <c r="AI52">
         <v>9.7E-5</v>
       </c>
-      <c r="AJ52" s="71">
+      <c r="AJ52" s="79">
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>296</v>
       </c>
@@ -15071,16 +15061,16 @@
       <c r="AI53">
         <v>786.59020999999996</v>
       </c>
-      <c r="AJ53" s="71">
+      <c r="AJ53" s="79">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>270</v>
       </c>
@@ -15183,11 +15173,11 @@
       <c r="AI55">
         <v>654.81927499999995</v>
       </c>
-      <c r="AJ55" s="71">
+      <c r="AJ55" s="79">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>274</v>
       </c>
@@ -15290,11 +15280,11 @@
       <c r="AI56">
         <v>287.52188100000001</v>
       </c>
-      <c r="AJ56" s="71">
+      <c r="AJ56" s="79">
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>277</v>
       </c>
@@ -15397,11 +15387,11 @@
       <c r="AI57">
         <v>2.5259830000000001</v>
       </c>
-      <c r="AJ57" s="71">
+      <c r="AJ57" s="79">
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>280</v>
       </c>
@@ -15504,11 +15494,11 @@
       <c r="AI58">
         <v>3.0494490000000001</v>
       </c>
-      <c r="AJ58" s="71">
+      <c r="AJ58" s="79">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>283</v>
       </c>
@@ -15611,11 +15601,11 @@
       <c r="AI59">
         <v>49.238883999999999</v>
       </c>
-      <c r="AJ59" s="71">
+      <c r="AJ59" s="79">
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>238</v>
       </c>
@@ -15718,11 +15708,11 @@
       <c r="AI60">
         <v>1.2381E-2</v>
       </c>
-      <c r="AJ60" s="71">
+      <c r="AJ60" s="79">
         <v>-1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>288</v>
       </c>
@@ -15825,11 +15815,11 @@
       <c r="AI61">
         <v>1.5801620000000001</v>
       </c>
-      <c r="AJ61" s="71">
+      <c r="AJ61" s="79">
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>291</v>
       </c>
@@ -15932,11 +15922,11 @@
       <c r="AI62">
         <v>1.8690389999999999</v>
       </c>
-      <c r="AJ62" s="71">
+      <c r="AJ62" s="79">
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>250</v>
       </c>
@@ -16039,11 +16029,11 @@
       <c r="AI63">
         <v>3.7687819999999999</v>
       </c>
-      <c r="AJ63" s="71">
+      <c r="AJ63" s="79">
         <v>0.127</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>318</v>
       </c>
@@ -16146,16 +16136,16 @@
       <c r="AI64">
         <v>1004.3855589999999</v>
       </c>
-      <c r="AJ64" s="71">
+      <c r="AJ64" s="79">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>270</v>
       </c>
@@ -16258,11 +16248,11 @@
       <c r="AI66">
         <v>2951.713135</v>
       </c>
-      <c r="AJ66" s="71">
+      <c r="AJ66" s="79">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>274</v>
       </c>
@@ -16365,11 +16355,11 @@
       <c r="AI67">
         <v>1.03118</v>
       </c>
-      <c r="AJ67" s="71">
+      <c r="AJ67" s="79">
         <v>-4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>277</v>
       </c>
@@ -16472,11 +16462,11 @@
       <c r="AI68">
         <v>0.94558799999999998</v>
       </c>
-      <c r="AJ68" s="71">
+      <c r="AJ68" s="79">
         <v>0.02</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>280</v>
       </c>
@@ -16579,11 +16569,11 @@
       <c r="AI69">
         <v>69.345146</v>
       </c>
-      <c r="AJ69" s="71">
+      <c r="AJ69" s="79">
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>283</v>
       </c>
@@ -16690,7 +16680,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>238</v>
       </c>
@@ -16793,11 +16783,11 @@
       <c r="AI71">
         <v>4.0220000000000004E-3</v>
       </c>
-      <c r="AJ71" s="71">
+      <c r="AJ71" s="79">
         <v>-0.06</v>
       </c>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>288</v>
       </c>
@@ -16900,11 +16890,11 @@
       <c r="AI72">
         <v>0.740282</v>
       </c>
-      <c r="AJ72" s="71">
+      <c r="AJ72" s="79">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>291</v>
       </c>
@@ -17007,11 +16997,11 @@
       <c r="AI73">
         <v>0.742699</v>
       </c>
-      <c r="AJ73" s="71">
+      <c r="AJ73" s="79">
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>250</v>
       </c>
@@ -17114,11 +17104,11 @@
       <c r="AI74">
         <v>1.3707670000000001</v>
       </c>
-      <c r="AJ74" s="71">
+      <c r="AJ74" s="79">
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>340</v>
       </c>
@@ -17221,11 +17211,11 @@
       <c r="AI75">
         <v>3025.8923340000001</v>
       </c>
-      <c r="AJ75" s="71">
+      <c r="AJ75" s="79">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>269</v>
       </c>
@@ -17236,7 +17226,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>270</v>
       </c>
@@ -17339,11 +17329,11 @@
       <c r="AI77">
         <v>4014.897461</v>
       </c>
-      <c r="AJ77" s="71">
+      <c r="AJ77" s="79">
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:36">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>274</v>
       </c>
@@ -17446,11 +17436,11 @@
       <c r="AI78">
         <v>645.93926999999996</v>
       </c>
-      <c r="AJ78" s="71">
+      <c r="AJ78" s="79">
         <v>0.01</v>
       </c>
     </row>
-    <row r="79" spans="1:36">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>277</v>
       </c>
@@ -17553,11 +17543,11 @@
       <c r="AI79">
         <v>5.6879999999999997</v>
       </c>
-      <c r="AJ79" s="71">
+      <c r="AJ79" s="79">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:36">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>280</v>
       </c>
@@ -17660,11 +17650,11 @@
       <c r="AI80">
         <v>72.899353000000005</v>
       </c>
-      <c r="AJ80" s="71">
+      <c r="AJ80" s="79">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:36">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>283</v>
       </c>
@@ -17767,11 +17757,11 @@
       <c r="AI81">
         <v>64.498283000000001</v>
       </c>
-      <c r="AJ81" s="71">
+      <c r="AJ81" s="79">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:36">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>238</v>
       </c>
@@ -17874,11 +17864,11 @@
       <c r="AI82">
         <v>2.0747999999999999E-2</v>
       </c>
-      <c r="AJ82" s="71">
+      <c r="AJ82" s="79">
         <v>-2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:36">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>288</v>
       </c>
@@ -17981,11 +17971,11 @@
       <c r="AI83">
         <v>3.5680200000000002</v>
       </c>
-      <c r="AJ83" s="71">
+      <c r="AJ83" s="79">
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:36">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>291</v>
       </c>
@@ -18088,11 +18078,11 @@
       <c r="AI84">
         <v>4.218197</v>
       </c>
-      <c r="AJ84" s="71">
+      <c r="AJ84" s="79">
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:36">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>250</v>
       </c>
@@ -18195,11 +18185,11 @@
       <c r="AI85">
         <v>5.1396470000000001</v>
       </c>
-      <c r="AJ85" s="71">
+      <c r="AJ85" s="79">
         <v>0.124</v>
       </c>
     </row>
-    <row r="86" spans="1:36">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>428</v>
       </c>
@@ -18302,21 +18292,21 @@
       <c r="AI86">
         <v>4816.8710940000001</v>
       </c>
-      <c r="AJ86" s="71">
+      <c r="AJ86" s="79">
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:36">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="88" spans="1:36">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="89" spans="1:36">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>270</v>
       </c>
@@ -18419,11 +18409,11 @@
       <c r="AI89">
         <v>18.198032000000001</v>
       </c>
-      <c r="AJ89" s="71">
+      <c r="AJ89" s="79">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:36">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>274</v>
       </c>
@@ -18526,11 +18516,11 @@
       <c r="AI90">
         <v>14.474892000000001</v>
       </c>
-      <c r="AJ90" s="71">
+      <c r="AJ90" s="79">
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:36">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>277</v>
       </c>
@@ -18633,11 +18623,11 @@
       <c r="AI91">
         <v>14.176228999999999</v>
       </c>
-      <c r="AJ91" s="71">
+      <c r="AJ91" s="79">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:36">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>280</v>
       </c>
@@ -18740,11 +18730,11 @@
       <c r="AI92">
         <v>14.030704999999999</v>
       </c>
-      <c r="AJ92" s="71">
+      <c r="AJ92" s="79">
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:36">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>283</v>
       </c>
@@ -18847,11 +18837,11 @@
       <c r="AI93">
         <v>10.925521</v>
       </c>
-      <c r="AJ93" s="71">
+      <c r="AJ93" s="79">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:36">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>238</v>
       </c>
@@ -18954,11 +18944,11 @@
       <c r="AI94">
         <v>28.857157000000001</v>
       </c>
-      <c r="AJ94" s="71">
+      <c r="AJ94" s="79">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:36">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>288</v>
       </c>
@@ -19061,11 +19051,11 @@
       <c r="AI95">
         <v>28.632776</v>
       </c>
-      <c r="AJ95" s="71">
+      <c r="AJ95" s="79">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:36">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>291</v>
       </c>
@@ -19168,11 +19158,11 @@
       <c r="AI96">
         <v>20.901672000000001</v>
       </c>
-      <c r="AJ96" s="71">
+      <c r="AJ96" s="79">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:36">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>250</v>
       </c>
@@ -19275,11 +19265,11 @@
       <c r="AI97">
         <v>16.254792999999999</v>
       </c>
-      <c r="AJ97" s="71">
+      <c r="AJ97" s="79">
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:36">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>452</v>
       </c>
@@ -19379,16 +19369,16 @@
       <c r="AI98">
         <v>16.356027999999998</v>
       </c>
-      <c r="AJ98" s="71">
+      <c r="AJ98" s="79">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:36">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="100" spans="1:36">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>270</v>
       </c>
@@ -19491,11 +19481,11 @@
       <c r="AI100">
         <v>12.444587</v>
       </c>
-      <c r="AJ100" s="71">
+      <c r="AJ100" s="79">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:36">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>274</v>
       </c>
@@ -19598,11 +19588,11 @@
       <c r="AI101">
         <v>8.8297089999999994</v>
       </c>
-      <c r="AJ101" s="71">
+      <c r="AJ101" s="79">
         <v>0.01</v>
       </c>
     </row>
-    <row r="102" spans="1:36">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>277</v>
       </c>
@@ -19705,11 +19695,11 @@
       <c r="AI102">
         <v>9.0944210000000005</v>
       </c>
-      <c r="AJ102" s="71">
+      <c r="AJ102" s="79">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:36">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>280</v>
       </c>
@@ -19812,11 +19802,11 @@
       <c r="AI103">
         <v>9.2914270000000005</v>
       </c>
-      <c r="AJ103" s="71">
+      <c r="AJ103" s="79">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:36">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>283</v>
       </c>
@@ -19919,11 +19909,11 @@
       <c r="AI104">
         <v>8.8786299999999994</v>
       </c>
-      <c r="AJ104" s="71">
+      <c r="AJ104" s="79">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:36">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>238</v>
       </c>
@@ -20026,11 +20016,11 @@
       <c r="AI105">
         <v>19.361134</v>
       </c>
-      <c r="AJ105" s="71">
+      <c r="AJ105" s="79">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:36">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>288</v>
       </c>
@@ -20133,11 +20123,11 @@
       <c r="AI106">
         <v>17.783300000000001</v>
       </c>
-      <c r="AJ106" s="71">
+      <c r="AJ106" s="79">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:36">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>291</v>
       </c>
@@ -20240,11 +20230,11 @@
       <c r="AI107">
         <v>12.833055</v>
       </c>
-      <c r="AJ107" s="71">
+      <c r="AJ107" s="79">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:36">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>250</v>
       </c>
@@ -20347,11 +20337,11 @@
       <c r="AI108">
         <v>11.399429</v>
       </c>
-      <c r="AJ108" s="71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:36">
+      <c r="AJ108" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>474</v>
       </c>
@@ -20451,16 +20441,16 @@
       <c r="AI109">
         <v>11.247814</v>
       </c>
-      <c r="AJ109" s="71">
+      <c r="AJ109" s="79">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:36">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="111" spans="1:36">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>270</v>
       </c>
@@ -20563,11 +20553,11 @@
       <c r="AI111">
         <v>7.6897479999999998</v>
       </c>
-      <c r="AJ111" s="71">
+      <c r="AJ111" s="79">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:36">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>274</v>
       </c>
@@ -20670,11 +20660,11 @@
       <c r="AI112">
         <v>7.2123400000000002</v>
       </c>
-      <c r="AJ112" s="71">
+      <c r="AJ112" s="79">
         <v>0.01</v>
       </c>
     </row>
-    <row r="113" spans="1:36">
+    <row r="113" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>277</v>
       </c>
@@ -20777,11 +20767,11 @@
       <c r="AI113">
         <v>7.1631450000000001</v>
       </c>
-      <c r="AJ113" s="71">
+      <c r="AJ113" s="79">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:36">
+    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>280</v>
       </c>
@@ -20884,11 +20874,11 @@
       <c r="AI114">
         <v>7.3846850000000002</v>
       </c>
-      <c r="AJ114" s="71">
+      <c r="AJ114" s="79">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:36">
+    <row r="115" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>283</v>
       </c>
@@ -20995,7 +20985,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="116" spans="1:36">
+    <row r="116" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>238</v>
       </c>
@@ -21098,11 +21088,11 @@
       <c r="AI116">
         <v>12.760730000000001</v>
       </c>
-      <c r="AJ116" s="71">
+      <c r="AJ116" s="79">
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:36">
+    <row r="117" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>288</v>
       </c>
@@ -21205,11 +21195,11 @@
       <c r="AI117">
         <v>9.9564979999999998</v>
       </c>
-      <c r="AJ117" s="71">
+      <c r="AJ117" s="79">
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:36">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>291</v>
       </c>
@@ -21312,11 +21302,11 @@
       <c r="AI118">
         <v>10.203567</v>
       </c>
-      <c r="AJ118" s="71">
+      <c r="AJ118" s="79">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:36">
+    <row r="119" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>250</v>
       </c>
@@ -21419,11 +21409,11 @@
       <c r="AI119">
         <v>6.7444470000000001</v>
       </c>
-      <c r="AJ119" s="71">
+      <c r="AJ119" s="79">
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:36">
+    <row r="120" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>495</v>
       </c>
@@ -21523,11 +21513,11 @@
       <c r="AI120">
         <v>7.6823459999999999</v>
       </c>
-      <c r="AJ120" s="71">
+      <c r="AJ120" s="79">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:36">
+    <row r="121" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>498</v>
       </c>
@@ -21627,21 +21617,21 @@
       <c r="AI121">
         <v>9.8936910000000005</v>
       </c>
-      <c r="AJ121" s="71">
+      <c r="AJ121" s="79">
         <v>0.01</v>
       </c>
     </row>
-    <row r="122" spans="1:36">
+    <row r="122" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="123" spans="1:36">
+    <row r="123" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="124" spans="1:36">
+    <row r="124" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>270</v>
       </c>
@@ -21744,11 +21734,11 @@
       <c r="AI124">
         <v>4.2129149999999997</v>
       </c>
-      <c r="AJ124" s="71">
+      <c r="AJ124" s="79">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:36">
+    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>274</v>
       </c>
@@ -21851,11 +21841,11 @@
       <c r="AI125">
         <v>3.474701</v>
       </c>
-      <c r="AJ125" s="71">
+      <c r="AJ125" s="79">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:36">
+    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>277</v>
       </c>
@@ -21958,11 +21948,11 @@
       <c r="AI126">
         <v>1.7177999999999999E-2</v>
       </c>
-      <c r="AJ126" s="71">
+      <c r="AJ126" s="79">
         <v>0.13</v>
       </c>
     </row>
-    <row r="127" spans="1:36">
+    <row r="127" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>280</v>
       </c>
@@ -22065,11 +22055,11 @@
       <c r="AI127">
         <v>4.5620000000000001E-3</v>
       </c>
-      <c r="AJ127" s="71">
+      <c r="AJ127" s="79">
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:36">
+    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>283</v>
       </c>
@@ -22172,11 +22162,11 @@
       <c r="AI128">
         <v>0.18598999999999999</v>
       </c>
-      <c r="AJ128" s="71">
+      <c r="AJ128" s="79">
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:36">
+    <row r="129" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>238</v>
       </c>
@@ -22279,11 +22269,11 @@
       <c r="AI129">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AJ129" s="71">
+      <c r="AJ129" s="79">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:36">
+    <row r="130" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>288</v>
       </c>
@@ -22386,11 +22376,11 @@
       <c r="AI130">
         <v>1.9609999999999999E-2</v>
       </c>
-      <c r="AJ130" s="71">
+      <c r="AJ130" s="79">
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:36">
+    <row r="131" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>291</v>
       </c>
@@ -22493,11 +22483,11 @@
       <c r="AI131">
         <v>2.0441000000000001E-2</v>
       </c>
-      <c r="AJ131" s="71">
+      <c r="AJ131" s="79">
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:36">
+    <row r="132" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>250</v>
       </c>
@@ -22600,11 +22590,11 @@
       <c r="AI132">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="AJ132" s="71">
+      <c r="AJ132" s="79">
         <v>0.111</v>
       </c>
     </row>
-    <row r="133" spans="1:36">
+    <row r="133" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>296</v>
       </c>
@@ -22707,16 +22697,16 @@
       <c r="AI133">
         <v>7.9354800000000001</v>
       </c>
-      <c r="AJ133" s="71">
+      <c r="AJ133" s="79">
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:36">
+    <row r="134" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="135" spans="1:36">
+    <row r="135" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>270</v>
       </c>
@@ -22819,11 +22809,11 @@
       <c r="AI135">
         <v>3.3056739999999998</v>
       </c>
-      <c r="AJ135" s="71">
+      <c r="AJ135" s="79">
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:36">
+    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>274</v>
       </c>
@@ -22926,11 +22916,11 @@
       <c r="AI136">
         <v>1.5806960000000001</v>
       </c>
-      <c r="AJ136" s="71">
+      <c r="AJ136" s="79">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:36">
+    <row r="137" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>277</v>
       </c>
@@ -23033,11 +23023,11 @@
       <c r="AI137">
         <v>1.1041E-2</v>
       </c>
-      <c r="AJ137" s="71">
+      <c r="AJ137" s="79">
         <v>0.05</v>
       </c>
     </row>
-    <row r="138" spans="1:36">
+    <row r="138" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>280</v>
       </c>
@@ -23140,11 +23130,11 @@
       <c r="AI138">
         <v>1.5193999999999999E-2</v>
       </c>
-      <c r="AJ138" s="71">
+      <c r="AJ138" s="79">
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:36">
+    <row r="139" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>283</v>
       </c>
@@ -23247,11 +23237,11 @@
       <c r="AI139">
         <v>0.25172099999999997</v>
       </c>
-      <c r="AJ139" s="71">
+      <c r="AJ139" s="79">
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:36">
+    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>238</v>
       </c>
@@ -23354,11 +23344,11 @@
       <c r="AI140">
         <v>1.6699999999999999E-4</v>
       </c>
-      <c r="AJ140" s="71">
+      <c r="AJ140" s="79">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:36">
+    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>288</v>
       </c>
@@ -23461,11 +23451,11 @@
       <c r="AI141">
         <v>1.4229E-2</v>
       </c>
-      <c r="AJ141" s="71">
+      <c r="AJ141" s="79">
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:36">
+    <row r="142" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>291</v>
       </c>
@@ -23568,11 +23558,11 @@
       <c r="AI142">
         <v>1.3469E-2</v>
       </c>
-      <c r="AJ142" s="71">
+      <c r="AJ142" s="79">
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:36">
+    <row r="143" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>250</v>
       </c>
@@ -23675,11 +23665,11 @@
       <c r="AI143">
         <v>2.1755E-2</v>
       </c>
-      <c r="AJ143" s="71">
+      <c r="AJ143" s="79">
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:36">
+    <row r="144" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>318</v>
       </c>
@@ -23782,16 +23772,16 @@
       <c r="AI144">
         <v>5.213946</v>
       </c>
-      <c r="AJ144" s="71">
+      <c r="AJ144" s="79">
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:36">
+    <row r="145" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="146" spans="1:36">
+    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>270</v>
       </c>
@@ -23894,11 +23884,11 @@
       <c r="AI146">
         <v>5.2851999999999997</v>
       </c>
-      <c r="AJ146" s="71">
+      <c r="AJ146" s="79">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:36">
+    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>274</v>
       </c>
@@ -24001,11 +23991,11 @@
       <c r="AI147">
         <v>9.299E-3</v>
       </c>
-      <c r="AJ147" s="71">
+      <c r="AJ147" s="79">
         <v>-5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:36">
+    <row r="148" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>277</v>
       </c>
@@ -24108,11 +24098,11 @@
       <c r="AI148">
         <v>4.267E-3</v>
       </c>
-      <c r="AJ148" s="71">
+      <c r="AJ148" s="79">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="149" spans="1:36">
+    <row r="149" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>280</v>
       </c>
@@ -24215,11 +24205,11 @@
       <c r="AI149">
         <v>9.7735000000000002E-2</v>
       </c>
-      <c r="AJ149" s="71">
+      <c r="AJ149" s="79">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:36">
+    <row r="150" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>283</v>
       </c>
@@ -24326,7 +24316,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="151" spans="1:36">
+    <row r="151" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>238</v>
       </c>
@@ -24429,11 +24419,11 @@
       <c r="AI151">
         <v>6.0999999999999999E-5</v>
       </c>
-      <c r="AJ151" s="71">
+      <c r="AJ151" s="79">
         <v>-2.4E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:36">
+    <row r="152" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>288</v>
       </c>
@@ -24536,11 +24526,11 @@
       <c r="AI152">
         <v>7.28E-3</v>
       </c>
-      <c r="AJ152" s="71">
+      <c r="AJ152" s="79">
         <v>0.125</v>
       </c>
     </row>
-    <row r="153" spans="1:36">
+    <row r="153" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>291</v>
       </c>
@@ -24643,11 +24633,11 @@
       <c r="AI153">
         <v>8.3020000000000004E-3</v>
       </c>
-      <c r="AJ153" s="71">
+      <c r="AJ153" s="79">
         <v>0.125</v>
       </c>
     </row>
-    <row r="154" spans="1:36">
+    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>250</v>
       </c>
@@ -24750,11 +24740,11 @@
       <c r="AI154">
         <v>9.11E-3</v>
       </c>
-      <c r="AJ154" s="71">
+      <c r="AJ154" s="79">
         <v>0.125</v>
       </c>
     </row>
-    <row r="155" spans="1:36">
+    <row r="155" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>340</v>
       </c>
@@ -24857,11 +24847,11 @@
       <c r="AI155">
         <v>5.421252</v>
       </c>
-      <c r="AJ155" s="71">
+      <c r="AJ155" s="79">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:36">
+    <row r="156" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>563</v>
       </c>
@@ -24964,26 +24954,26 @@
       <c r="AI156">
         <v>18.570656</v>
       </c>
-      <c r="AJ156" s="71">
+      <c r="AJ156" s="79">
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:36">
+    <row r="157" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="158" spans="1:36">
+    <row r="158" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="159" spans="1:36">
+    <row r="159" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="160" spans="1:36">
+    <row r="160" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>270</v>
       </c>
@@ -25086,11 +25076,11 @@
       <c r="AI160">
         <v>18.232309000000001</v>
       </c>
-      <c r="AJ160" s="71">
+      <c r="AJ160" s="79">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:36">
+    <row r="161" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>274</v>
       </c>
@@ -25193,11 +25183,11 @@
       <c r="AI161">
         <v>14.675402999999999</v>
       </c>
-      <c r="AJ161" s="71">
+      <c r="AJ161" s="79">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:36">
+    <row r="162" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>277</v>
       </c>
@@ -25300,11 +25290,11 @@
       <c r="AI162">
         <v>14.392224000000001</v>
       </c>
-      <c r="AJ162" s="71">
+      <c r="AJ162" s="79">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:36">
+    <row r="163" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>280</v>
       </c>
@@ -25407,11 +25397,11 @@
       <c r="AI163">
         <v>13.973502</v>
       </c>
-      <c r="AJ163" s="71">
+      <c r="AJ163" s="79">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:36">
+    <row r="164" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>283</v>
       </c>
@@ -25514,11 +25504,11 @@
       <c r="AI164">
         <v>11.148676999999999</v>
       </c>
-      <c r="AJ164" s="71">
+      <c r="AJ164" s="79">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:36">
+    <row r="165" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>238</v>
       </c>
@@ -25621,11 +25611,11 @@
       <c r="AI165">
         <v>28.996054000000001</v>
       </c>
-      <c r="AJ165" s="71">
+      <c r="AJ165" s="79">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:36">
+    <row r="166" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>288</v>
       </c>
@@ -25728,11 +25718,11 @@
       <c r="AI166">
         <v>28.845355999999999</v>
       </c>
-      <c r="AJ166" s="71">
+      <c r="AJ166" s="79">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:36">
+    <row r="167" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>291</v>
       </c>
@@ -25835,11 +25825,11 @@
       <c r="AI167">
         <v>21.018298999999999</v>
       </c>
-      <c r="AJ167" s="71">
+      <c r="AJ167" s="79">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:36">
+    <row r="168" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>250</v>
       </c>
@@ -25942,11 +25932,11 @@
       <c r="AI168">
         <v>16.244858000000001</v>
       </c>
-      <c r="AJ168" s="71">
+      <c r="AJ168" s="79">
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:36">
+    <row r="169" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>452</v>
       </c>
@@ -26046,16 +26036,16 @@
       <c r="AI169">
         <v>16.605038</v>
       </c>
-      <c r="AJ169" s="71">
+      <c r="AJ169" s="79">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="170" spans="1:36">
+    <row r="170" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="171" spans="1:36">
+    <row r="171" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>270</v>
       </c>
@@ -26158,11 +26148,11 @@
       <c r="AI171">
         <v>12.71203</v>
       </c>
-      <c r="AJ171" s="71">
+      <c r="AJ171" s="79">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:36">
+    <row r="172" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>274</v>
       </c>
@@ -26265,11 +26255,11 @@
       <c r="AI172">
         <v>9.1026150000000001</v>
       </c>
-      <c r="AJ172" s="71">
+      <c r="AJ172" s="79">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:36">
+    <row r="173" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>277</v>
       </c>
@@ -26372,11 +26362,11 @@
       <c r="AI173">
         <v>9.2124220000000001</v>
       </c>
-      <c r="AJ173" s="71">
+      <c r="AJ173" s="79">
         <v>0.01</v>
       </c>
     </row>
-    <row r="174" spans="1:36">
+    <row r="174" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>280</v>
       </c>
@@ -26479,11 +26469,11 @@
       <c r="AI174">
         <v>9.4569939999999999</v>
       </c>
-      <c r="AJ174" s="71">
+      <c r="AJ174" s="79">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:36">
+    <row r="175" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>283</v>
       </c>
@@ -26586,11 +26576,11 @@
       <c r="AI175">
         <v>9.0092990000000004</v>
       </c>
-      <c r="AJ175" s="71">
+      <c r="AJ175" s="79">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:36">
+    <row r="176" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>238</v>
       </c>
@@ -26693,11 +26683,11 @@
       <c r="AI176">
         <v>20.520244999999999</v>
       </c>
-      <c r="AJ176" s="71">
+      <c r="AJ176" s="79">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:36">
+    <row r="177" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>288</v>
       </c>
@@ -26800,11 +26790,11 @@
       <c r="AI177">
         <v>18.072089999999999</v>
       </c>
-      <c r="AJ177" s="71">
+      <c r="AJ177" s="79">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:36">
+    <row r="178" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>291</v>
       </c>
@@ -26907,11 +26897,11 @@
       <c r="AI178">
         <v>13.003983</v>
       </c>
-      <c r="AJ178" s="71">
+      <c r="AJ178" s="79">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:36">
+    <row r="179" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>250</v>
       </c>
@@ -27014,11 +27004,11 @@
       <c r="AI179">
         <v>11.399426999999999</v>
       </c>
-      <c r="AJ179" s="71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:36">
+      <c r="AJ179" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>474</v>
       </c>
@@ -27118,16 +27108,16 @@
       <c r="AI180">
         <v>11.692449</v>
       </c>
-      <c r="AJ180" s="71">
+      <c r="AJ180" s="79">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="181" spans="1:36">
+    <row r="181" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="182" spans="1:36">
+    <row r="182" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>270</v>
       </c>
@@ -27230,11 +27220,11 @@
       <c r="AI182">
         <v>7.8210449999999998</v>
       </c>
-      <c r="AJ182" s="71">
+      <c r="AJ182" s="79">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:36">
+    <row r="183" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>274</v>
       </c>
@@ -27337,11 +27327,11 @@
       <c r="AI183">
         <v>7.3940359999999998</v>
       </c>
-      <c r="AJ183" s="71">
+      <c r="AJ183" s="79">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="184" spans="1:36">
+    <row r="184" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>277</v>
       </c>
@@ -27444,11 +27434,11 @@
       <c r="AI184">
         <v>7.2161419999999996</v>
       </c>
-      <c r="AJ184" s="71">
+      <c r="AJ184" s="79">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="185" spans="1:36">
+    <row r="185" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>280</v>
       </c>
@@ -27551,11 +27541,11 @@
       <c r="AI185">
         <v>7.4525509999999997</v>
       </c>
-      <c r="AJ185" s="71">
+      <c r="AJ185" s="79">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:36">
+    <row r="186" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>283</v>
       </c>
@@ -27662,7 +27652,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="187" spans="1:36">
+    <row r="187" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>238</v>
       </c>
@@ -27765,11 +27755,11 @@
       <c r="AI187">
         <v>12.245113</v>
       </c>
-      <c r="AJ187" s="71">
+      <c r="AJ187" s="79">
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:36">
+    <row r="188" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>288</v>
       </c>
@@ -27872,11 +27862,11 @@
       <c r="AI188">
         <v>10.359931</v>
       </c>
-      <c r="AJ188" s="71">
+      <c r="AJ188" s="79">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:36">
+    <row r="189" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>291</v>
       </c>
@@ -27979,11 +27969,11 @@
       <c r="AI189">
         <v>10.635474</v>
       </c>
-      <c r="AJ189" s="71">
+      <c r="AJ189" s="79">
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:36">
+    <row r="190" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>250</v>
       </c>
@@ -28086,11 +28076,11 @@
       <c r="AI190">
         <v>6.7426649999999997</v>
       </c>
-      <c r="AJ190" s="71">
+      <c r="AJ190" s="79">
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:36">
+    <row r="191" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>495</v>
       </c>
@@ -28190,11 +28180,11 @@
       <c r="AI191">
         <v>7.8072840000000001</v>
       </c>
-      <c r="AJ191" s="71">
+      <c r="AJ191" s="79">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="192" spans="1:36">
+    <row r="192" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>498</v>
       </c>
@@ -28294,21 +28284,21 @@
       <c r="AI192">
         <v>9.9356360000000006</v>
       </c>
-      <c r="AJ192" s="71">
+      <c r="AJ192" s="79">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:36">
+    <row r="193" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="194" spans="1:36">
+    <row r="194" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="195" spans="1:36">
+    <row r="195" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>270</v>
       </c>
@@ -28411,11 +28401,11 @@
       <c r="AI195">
         <v>138.585678</v>
       </c>
-      <c r="AJ195" s="71">
+      <c r="AJ195" s="79">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="196" spans="1:36">
+    <row r="196" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>274</v>
       </c>
@@ -28518,11 +28508,11 @@
       <c r="AI196">
         <v>160.71824599999999</v>
       </c>
-      <c r="AJ196" s="71">
+      <c r="AJ196" s="79">
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:36">
+    <row r="197" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>277</v>
       </c>
@@ -28625,11 +28615,11 @@
       <c r="AI197">
         <v>0.99714999999999998</v>
       </c>
-      <c r="AJ197" s="71">
+      <c r="AJ197" s="79">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:36">
+    <row r="198" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>280</v>
       </c>
@@ -28732,11 +28722,11 @@
       <c r="AI198">
         <v>0.21567700000000001</v>
       </c>
-      <c r="AJ198" s="71">
+      <c r="AJ198" s="79">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:36">
+    <row r="199" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>283</v>
       </c>
@@ -28839,11 +28829,11 @@
       <c r="AI199">
         <v>4.3698420000000002</v>
       </c>
-      <c r="AJ199" s="71">
+      <c r="AJ199" s="79">
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:36">
+    <row r="200" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>238</v>
       </c>
@@ -28946,11 +28936,11 @@
       <c r="AI200">
         <v>3.1340000000000001E-3</v>
       </c>
-      <c r="AJ200" s="71">
+      <c r="AJ200" s="79">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:36">
+    <row r="201" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>288</v>
       </c>
@@ -29053,11 +29043,11 @@
       <c r="AI201">
         <v>1.138344</v>
       </c>
-      <c r="AJ201" s="71">
+      <c r="AJ201" s="79">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:36">
+    <row r="202" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>291</v>
       </c>
@@ -29160,11 +29150,11 @@
       <c r="AI202">
         <v>1.186625</v>
       </c>
-      <c r="AJ202" s="71">
+      <c r="AJ202" s="79">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:36">
+    <row r="203" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>250</v>
       </c>
@@ -29267,11 +29257,11 @@
       <c r="AI203">
         <v>2.9E-5</v>
       </c>
-      <c r="AJ203" s="71">
+      <c r="AJ203" s="79">
         <v>-1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:36">
+    <row r="204" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>296</v>
       </c>
@@ -29374,16 +29364,16 @@
       <c r="AI204">
         <v>307.21469100000002</v>
       </c>
-      <c r="AJ204" s="71">
+      <c r="AJ204" s="79">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="205" spans="1:36">
+    <row r="205" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="206" spans="1:36">
+    <row r="206" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>270</v>
       </c>
@@ -29486,11 +29476,11 @@
       <c r="AI206">
         <v>159.60813899999999</v>
       </c>
-      <c r="AJ206" s="71">
+      <c r="AJ206" s="79">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="207" spans="1:36">
+    <row r="207" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>274</v>
       </c>
@@ -29593,11 +29583,11 @@
       <c r="AI207">
         <v>72.283278999999993</v>
       </c>
-      <c r="AJ207" s="71">
+      <c r="AJ207" s="79">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:36">
+    <row r="208" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>277</v>
       </c>
@@ -29700,11 +29690,11 @@
       <c r="AI208">
         <v>0.73306199999999999</v>
       </c>
-      <c r="AJ208" s="71">
+      <c r="AJ208" s="79">
         <v>0.04</v>
       </c>
     </row>
-    <row r="209" spans="1:36">
+    <row r="209" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>280</v>
       </c>
@@ -29807,11 +29797,11 @@
       <c r="AI209">
         <v>0.77164200000000005</v>
       </c>
-      <c r="AJ209" s="71">
+      <c r="AJ209" s="79">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="210" spans="1:36">
+    <row r="210" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>283</v>
       </c>
@@ -29914,11 +29904,11 @@
       <c r="AI210">
         <v>15.78293</v>
       </c>
-      <c r="AJ210" s="71">
+      <c r="AJ210" s="79">
         <v>0.03</v>
       </c>
     </row>
-    <row r="211" spans="1:36">
+    <row r="211" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>238</v>
       </c>
@@ -30021,11 +30011,11 @@
       <c r="AI211">
         <v>2.967E-3</v>
       </c>
-      <c r="AJ211" s="71">
+      <c r="AJ211" s="79">
         <v>-5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:36">
+    <row r="212" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>288</v>
       </c>
@@ -30128,11 +30118,11 @@
       <c r="AI212">
         <v>0.960287</v>
       </c>
-      <c r="AJ212" s="71">
+      <c r="AJ212" s="79">
         <v>0.04</v>
       </c>
     </row>
-    <row r="213" spans="1:36">
+    <row r="213" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>291</v>
       </c>
@@ -30235,11 +30225,11 @@
       <c r="AI213">
         <v>0.90898299999999999</v>
       </c>
-      <c r="AJ213" s="71">
+      <c r="AJ213" s="79">
         <v>0.04</v>
       </c>
     </row>
-    <row r="214" spans="1:36">
+    <row r="214" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>250</v>
       </c>
@@ -30342,11 +30332,11 @@
       <c r="AI214">
         <v>1.468153</v>
       </c>
-      <c r="AJ214" s="71">
+      <c r="AJ214" s="79">
         <v>0.04</v>
       </c>
     </row>
-    <row r="215" spans="1:36">
+    <row r="215" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>318</v>
       </c>
@@ -30449,16 +30439,16 @@
       <c r="AI215">
         <v>252.51945499999999</v>
       </c>
-      <c r="AJ215" s="71">
+      <c r="AJ215" s="79">
         <v>0.01</v>
       </c>
     </row>
-    <row r="216" spans="1:36">
+    <row r="216" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="217" spans="1:36">
+    <row r="217" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>270</v>
       </c>
@@ -30561,11 +30551,11 @@
       <c r="AI217">
         <v>184.371353</v>
       </c>
-      <c r="AJ217" s="71">
+      <c r="AJ217" s="79">
         <v>-1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:36">
+    <row r="218" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>274</v>
       </c>
@@ -30668,11 +30658,11 @@
       <c r="AI218">
         <v>0.32139000000000001</v>
       </c>
-      <c r="AJ218" s="71">
+      <c r="AJ218" s="79">
         <v>-1.2E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:36">
+    <row r="219" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>277</v>
       </c>
@@ -30775,11 +30765,11 @@
       <c r="AI219">
         <v>0.18992899999999999</v>
       </c>
-      <c r="AJ219" s="71">
+      <c r="AJ219" s="79">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="220" spans="1:36">
+    <row r="220" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>280</v>
       </c>
@@ -30882,11 +30872,11 @@
       <c r="AI220">
         <v>6.8936710000000003</v>
       </c>
-      <c r="AJ220" s="71">
+      <c r="AJ220" s="79">
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:36">
+    <row r="221" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>283</v>
       </c>
@@ -30993,7 +30983,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="222" spans="1:36">
+    <row r="222" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>238</v>
       </c>
@@ -31096,11 +31086,11 @@
       <c r="AI222">
         <v>6.4300000000000002E-4</v>
       </c>
-      <c r="AJ222" s="71">
+      <c r="AJ222" s="79">
         <v>-1.2E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:36">
+    <row r="223" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>288</v>
       </c>
@@ -31203,11 +31193,11 @@
       <c r="AI223">
         <v>0.38811800000000002</v>
       </c>
-      <c r="AJ223" s="71">
+      <c r="AJ223" s="79">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:36">
+    <row r="224" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>291</v>
       </c>
@@ -31310,11 +31300,11 @@
       <c r="AI224">
         <v>0.44258700000000001</v>
       </c>
-      <c r="AJ224" s="71">
+      <c r="AJ224" s="79">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:36">
+    <row r="225" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>250</v>
       </c>
@@ -31417,11 +31407,11 @@
       <c r="AI225">
         <v>0.48568099999999997</v>
       </c>
-      <c r="AJ225" s="71">
+      <c r="AJ225" s="79">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:36">
+    <row r="226" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>340</v>
       </c>
@@ -31524,11 +31514,11 @@
       <c r="AI226">
         <v>193.093369</v>
       </c>
-      <c r="AJ226" s="71">
+      <c r="AJ226" s="79">
         <v>-1.2E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:36">
+    <row r="227" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>227</v>
       </c>
@@ -31631,16 +31621,16 @@
       <c r="AI227">
         <v>752.82745399999999</v>
       </c>
-      <c r="AJ227" s="71">
+      <c r="AJ227" s="79">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="228" spans="1:36">
+    <row r="228" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="229" spans="1:36">
+    <row r="229" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>693</v>
       </c>
@@ -31743,11 +31733,11 @@
       <c r="AI229">
         <v>1632.708496</v>
       </c>
-      <c r="AJ229" s="71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:36">
+      <c r="AJ229" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>697</v>
       </c>
@@ -31850,16 +31840,16 @@
       <c r="AI230">
         <v>4.2362380000000002</v>
       </c>
-      <c r="AJ230" s="71">
+      <c r="AJ230" s="79">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="231" spans="1:36">
+    <row r="231" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="232" spans="1:36">
+    <row r="232" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>702</v>
       </c>
@@ -31962,11 +31952,11 @@
       <c r="AI232">
         <v>215.148392</v>
       </c>
-      <c r="AJ232" s="71">
+      <c r="AJ232" s="79">
         <v>-2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:36">
+    <row r="233" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>705</v>
       </c>
@@ -32073,7 +32063,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="234" spans="1:36">
+    <row r="234" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>708</v>
       </c>
@@ -32180,7 +32170,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="235" spans="1:36">
+    <row r="235" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>711</v>
       </c>
@@ -32283,16 +32273,16 @@
       <c r="AI235">
         <v>170.266312</v>
       </c>
-      <c r="AJ235" s="71">
+      <c r="AJ235" s="79">
         <v>0.17699999999999999</v>
       </c>
     </row>
-    <row r="236" spans="1:36">
+    <row r="236" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="237" spans="1:36">
+    <row r="237" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>715</v>
       </c>
@@ -32395,11 +32385,11 @@
       <c r="AI237">
         <v>222.72167999999999</v>
       </c>
-      <c r="AJ237" s="71">
+      <c r="AJ237" s="79">
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:36">
+    <row r="238" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>697</v>
       </c>
@@ -32502,16 +32492,16 @@
       <c r="AI238">
         <v>5.7835729999999996</v>
       </c>
-      <c r="AJ238" s="71">
+      <c r="AJ238" s="79">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="239" spans="1:36">
+    <row r="239" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="240" spans="1:36">
+    <row r="240" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>702</v>
       </c>
@@ -32614,11 +32604,11 @@
       <c r="AI240">
         <v>39.761702999999997</v>
       </c>
-      <c r="AJ240" s="71">
+      <c r="AJ240" s="79">
         <v>-2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:36">
+    <row r="241" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>705</v>
       </c>
@@ -32721,11 +32711,11 @@
       <c r="AI241">
         <v>0.20796700000000001</v>
       </c>
-      <c r="AJ241" s="71">
+      <c r="AJ241" s="79">
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:36">
+    <row r="242" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>708</v>
       </c>
@@ -32832,7 +32822,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="243" spans="1:36">
+    <row r="243" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>711</v>
       </c>
@@ -32935,16 +32925,16 @@
       <c r="AI243">
         <v>1.3664959999999999</v>
       </c>
-      <c r="AJ243" s="71">
+      <c r="AJ243" s="79">
         <v>0.04</v>
       </c>
     </row>
-    <row r="244" spans="1:36">
+    <row r="244" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="245" spans="1:36">
+    <row r="245" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>729</v>
       </c>
@@ -33047,11 +33037,11 @@
       <c r="AI245">
         <v>11948.395508</v>
       </c>
-      <c r="AJ245" s="71">
+      <c r="AJ245" s="79">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:36">
+    <row r="246" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>733</v>
       </c>
@@ -33154,11 +33144,11 @@
       <c r="AI246">
         <v>5053.6806640000004</v>
       </c>
-      <c r="AJ246" s="71">
+      <c r="AJ246" s="79">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:36">
+    <row r="247" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>736</v>
       </c>
@@ -33261,16 +33251,16 @@
       <c r="AI247">
         <v>6894.7148440000001</v>
       </c>
-      <c r="AJ247" s="71">
+      <c r="AJ247" s="79">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:36">
+    <row r="248" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="249" spans="1:36">
+    <row r="249" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>702</v>
       </c>
@@ -33373,11 +33363,11 @@
       <c r="AI249">
         <v>333.61468500000001</v>
       </c>
-      <c r="AJ249" s="71">
+      <c r="AJ249" s="79">
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="250" spans="1:36">
+    <row r="250" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>705</v>
       </c>
@@ -33480,11 +33470,11 @@
       <c r="AI250">
         <v>445.953979</v>
       </c>
-      <c r="AJ250" s="71">
+      <c r="AJ250" s="79">
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="251" spans="1:36">
+    <row r="251" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>708</v>
       </c>
@@ -33591,7 +33581,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="252" spans="1:36">
+    <row r="252" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>711</v>
       </c>
@@ -33694,7 +33684,7 @@
       <c r="AI252">
         <v>96.559501999999995</v>
       </c>
-      <c r="AJ252" s="71">
+      <c r="AJ252" s="79">
         <v>3.1E-2</v>
       </c>
     </row>
@@ -33709,29 +33699,29 @@
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>105</v>
       </c>
@@ -33838,12 +33828,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -33851,7 +33841,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>111</v>
       </c>
@@ -33954,11 +33944,11 @@
       <c r="AI8">
         <v>364.186218</v>
       </c>
-      <c r="AJ8" s="71">
+      <c r="AJ8" s="79">
         <v>-2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -34065,7 +34055,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>118</v>
       </c>
@@ -34168,16 +34158,16 @@
       <c r="AI10">
         <v>364.186218</v>
       </c>
-      <c r="AJ10" s="71">
+      <c r="AJ10" s="79">
         <v>-2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>122</v>
       </c>
@@ -34280,11 +34270,11 @@
       <c r="AI12">
         <v>16.742367000000002</v>
       </c>
-      <c r="AJ12" s="71">
+      <c r="AJ12" s="79">
         <v>-1.6E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>125</v>
       </c>
@@ -34387,11 +34377,11 @@
       <c r="AI13">
         <v>5.45275</v>
       </c>
-      <c r="AJ13" s="71">
+      <c r="AJ13" s="79">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>128</v>
       </c>
@@ -34494,11 +34484,11 @@
       <c r="AI14">
         <v>38.302933000000003</v>
       </c>
-      <c r="AJ14" s="71">
+      <c r="AJ14" s="79">
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>131</v>
       </c>
@@ -34601,11 +34591,11 @@
       <c r="AI15">
         <v>54.760604999999998</v>
       </c>
-      <c r="AJ15" s="71">
+      <c r="AJ15" s="79">
         <v>0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>134</v>
       </c>
@@ -34708,11 +34698,11 @@
       <c r="AI16">
         <v>7.3413700000000004</v>
       </c>
-      <c r="AJ16" s="71">
+      <c r="AJ16" s="79">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>137</v>
       </c>
@@ -34815,11 +34805,11 @@
       <c r="AI17">
         <v>7.3375190000000003</v>
       </c>
-      <c r="AJ17" s="71">
+      <c r="AJ17" s="79">
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>139</v>
       </c>
@@ -34926,7 +34916,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>143</v>
       </c>
@@ -35029,11 +35019,11 @@
       <c r="AI19">
         <v>48.345874999999999</v>
       </c>
-      <c r="AJ19" s="71">
+      <c r="AJ19" s="79">
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>146</v>
       </c>
@@ -35140,7 +35130,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>149</v>
       </c>
@@ -35247,7 +35237,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>152</v>
       </c>
@@ -35354,7 +35344,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>155</v>
       </c>
@@ -35461,7 +35451,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>157</v>
       </c>
@@ -35568,7 +35558,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>160</v>
       </c>
@@ -35671,11 +35661,11 @@
       <c r="AI25">
         <v>0.95419299999999996</v>
       </c>
-      <c r="AJ25" s="71">
+      <c r="AJ25" s="79">
         <v>0.17899999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>163</v>
       </c>
@@ -35778,11 +35768,11 @@
       <c r="AI26">
         <v>179.23760999999999</v>
       </c>
-      <c r="AJ26" s="71">
+      <c r="AJ26" s="79">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>166</v>
       </c>
@@ -35885,11 +35875,11 @@
       <c r="AI27">
         <v>32.983024999999998</v>
       </c>
-      <c r="AJ27" s="71">
+      <c r="AJ27" s="79">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>170</v>
       </c>
@@ -35992,21 +35982,21 @@
       <c r="AI28">
         <v>543.42382799999996</v>
       </c>
-      <c r="AJ28" s="71">
+      <c r="AJ28" s="79">
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>111</v>
       </c>
@@ -36109,11 +36099,11 @@
       <c r="AI31">
         <v>1304.9160159999999</v>
       </c>
-      <c r="AJ31" s="71">
+      <c r="AJ31" s="79">
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>115</v>
       </c>
@@ -36216,11 +36206,11 @@
       <c r="AI32">
         <v>7.2100999999999998E-2</v>
       </c>
-      <c r="AJ32" s="71">
+      <c r="AJ32" s="79">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>179</v>
       </c>
@@ -36323,16 +36313,16 @@
       <c r="AI33">
         <v>1304.988159</v>
       </c>
-      <c r="AJ33" s="71">
+      <c r="AJ33" s="79">
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>122</v>
       </c>
@@ -36435,11 +36425,11 @@
       <c r="AI35">
         <v>162.311981</v>
       </c>
-      <c r="AJ35" s="71">
+      <c r="AJ35" s="79">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>125</v>
       </c>
@@ -36546,7 +36536,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>128</v>
       </c>
@@ -36649,11 +36639,11 @@
       <c r="AI37">
         <v>124.331017</v>
       </c>
-      <c r="AJ37" s="71">
+      <c r="AJ37" s="79">
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>131</v>
       </c>
@@ -36756,11 +36746,11 @@
       <c r="AI38">
         <v>18.823827999999999</v>
       </c>
-      <c r="AJ38" s="71">
+      <c r="AJ38" s="79">
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>134</v>
       </c>
@@ -36863,11 +36853,11 @@
       <c r="AI39">
         <v>10.019754000000001</v>
       </c>
-      <c r="AJ39" s="71">
+      <c r="AJ39" s="79">
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>137</v>
       </c>
@@ -36970,11 +36960,11 @@
       <c r="AI40">
         <v>10.973234</v>
       </c>
-      <c r="AJ40" s="71">
+      <c r="AJ40" s="79">
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>139</v>
       </c>
@@ -37081,7 +37071,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>143</v>
       </c>
@@ -37184,11 +37174,11 @@
       <c r="AI42">
         <v>70.065323000000006</v>
       </c>
-      <c r="AJ42" s="71">
+      <c r="AJ42" s="79">
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>146</v>
       </c>
@@ -37295,7 +37285,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>149</v>
       </c>
@@ -37402,7 +37392,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>152</v>
       </c>
@@ -37509,7 +37499,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>155</v>
       </c>
@@ -37616,7 +37606,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>157</v>
       </c>
@@ -37723,7 +37713,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>160</v>
       </c>
@@ -37830,7 +37820,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>209</v>
       </c>
@@ -37933,11 +37923,11 @@
       <c r="AI49">
         <v>396.61981200000002</v>
       </c>
-      <c r="AJ49" s="71">
+      <c r="AJ49" s="79">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>212</v>
       </c>
@@ -38040,11 +38030,11 @@
       <c r="AI50">
         <v>23.308533000000001</v>
       </c>
-      <c r="AJ50" s="71">
+      <c r="AJ50" s="79">
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>215</v>
       </c>
@@ -38147,11 +38137,11 @@
       <c r="AI51">
         <v>1701.6079099999999</v>
       </c>
-      <c r="AJ51" s="71">
+      <c r="AJ51" s="79">
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>826</v>
       </c>
@@ -38254,16 +38244,16 @@
       <c r="AI52">
         <v>2245.0317380000001</v>
       </c>
-      <c r="AJ52" s="71">
+      <c r="AJ52" s="79">
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>274</v>
       </c>
@@ -38366,11 +38356,11 @@
       <c r="AI54">
         <v>210.549103</v>
       </c>
-      <c r="AJ54" s="71">
+      <c r="AJ54" s="79">
         <v>-3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>270</v>
       </c>
@@ -38473,11 +38463,11 @@
       <c r="AI55">
         <v>289.792145</v>
       </c>
-      <c r="AJ55" s="71">
+      <c r="AJ55" s="79">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>277</v>
       </c>
@@ -38580,11 +38570,11 @@
       <c r="AI56">
         <v>2.8735360000000001</v>
       </c>
-      <c r="AJ56" s="71">
+      <c r="AJ56" s="79">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>280</v>
       </c>
@@ -38687,11 +38677,11 @@
       <c r="AI57">
         <v>0.48553800000000003</v>
       </c>
-      <c r="AJ57" s="71">
+      <c r="AJ57" s="79">
         <v>-2.4E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>283</v>
       </c>
@@ -38794,11 +38784,11 @@
       <c r="AI58">
         <v>332.66027800000001</v>
       </c>
-      <c r="AJ58" s="71">
+      <c r="AJ58" s="79">
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>238</v>
       </c>
@@ -38901,11 +38891,11 @@
       <c r="AI59">
         <v>8.4290000000000007E-3</v>
       </c>
-      <c r="AJ59" s="71">
+      <c r="AJ59" s="79">
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>291</v>
       </c>
@@ -39008,11 +38998,11 @@
       <c r="AI60">
         <v>3.1403560000000001</v>
       </c>
-      <c r="AJ60" s="71">
+      <c r="AJ60" s="79">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>288</v>
       </c>
@@ -39115,11 +39105,11 @@
       <c r="AI61">
         <v>3.373761</v>
       </c>
-      <c r="AJ61" s="71">
+      <c r="AJ61" s="79">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>250</v>
       </c>
@@ -39226,7 +39216,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>848</v>
       </c>
@@ -39329,7 +39319,7 @@
       <c r="AI63">
         <v>842.88311799999997</v>
       </c>
-      <c r="AJ63" s="71">
+      <c r="AJ63" s="79">
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
@@ -39344,7 +39334,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39358,72 +39348,72 @@
       <selection sqref="A1:AB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="27" width="7.6640625" customWidth="1"/>
-    <col min="28" max="28" width="7.1640625" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="27" width="7.7109375" customWidth="1"/>
+    <col min="28" max="28" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:54" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78"/>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="78"/>
-      <c r="AK1" s="78"/>
-      <c r="AL1" s="78"/>
-      <c r="AM1" s="78"/>
-      <c r="AN1" s="78"/>
-      <c r="AO1" s="78"/>
-      <c r="AP1" s="78"/>
-      <c r="AQ1" s="78"/>
-      <c r="AR1" s="78"/>
-      <c r="AS1" s="78"/>
-      <c r="AT1" s="78"/>
-      <c r="AU1" s="78"/>
-      <c r="AV1" s="78"/>
-      <c r="AW1" s="78"/>
-      <c r="AX1" s="78"/>
-      <c r="AY1" s="78"/>
-      <c r="AZ1" s="78"/>
-      <c r="BA1" s="78"/>
-      <c r="BB1" s="78"/>
-    </row>
-    <row r="2" spans="1:54" ht="16.5" customHeight="1">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
+      <c r="X1" s="75"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="76"/>
+      <c r="AJ1" s="76"/>
+      <c r="AK1" s="76"/>
+      <c r="AL1" s="76"/>
+      <c r="AM1" s="76"/>
+      <c r="AN1" s="76"/>
+      <c r="AO1" s="76"/>
+      <c r="AP1" s="76"/>
+      <c r="AQ1" s="76"/>
+      <c r="AR1" s="76"/>
+      <c r="AS1" s="76"/>
+      <c r="AT1" s="76"/>
+      <c r="AU1" s="76"/>
+      <c r="AV1" s="76"/>
+      <c r="AW1" s="76"/>
+      <c r="AX1" s="76"/>
+      <c r="AY1" s="76"/>
+      <c r="AZ1" s="76"/>
+      <c r="BA1" s="76"/>
+      <c r="BB1" s="76"/>
+    </row>
+    <row r="2" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="38"/>
       <c r="B2" s="39">
         <v>1980</v>
@@ -39533,7 +39523,7 @@
       <c r="BA2" s="45"/>
       <c r="BB2" s="46"/>
     </row>
-    <row r="3" spans="1:54" ht="16.5" customHeight="1">
+    <row r="3" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
         <v>65</v>
       </c>
@@ -39645,7 +39635,7 @@
       <c r="BA3" s="48"/>
       <c r="BB3" s="48"/>
     </row>
-    <row r="4" spans="1:54" ht="16.5" customHeight="1">
+    <row r="4" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="50" t="s">
         <v>67</v>
       </c>
@@ -39757,7 +39747,7 @@
       <c r="BA4" s="52"/>
       <c r="BB4" s="52"/>
     </row>
-    <row r="5" spans="1:54" ht="16.5" customHeight="1">
+    <row r="5" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="50" t="s">
         <v>68</v>
       </c>
@@ -39869,7 +39859,7 @@
       <c r="BA5" s="52"/>
       <c r="BB5" s="52"/>
     </row>
-    <row r="6" spans="1:54" ht="16.5" customHeight="1">
+    <row r="6" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="50" t="s">
         <v>69</v>
       </c>
@@ -39981,7 +39971,7 @@
       <c r="BA6" s="52"/>
       <c r="BB6" s="52"/>
     </row>
-    <row r="7" spans="1:54" ht="16.5" customHeight="1">
+    <row r="7" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="50" t="s">
         <v>70</v>
       </c>
@@ -40093,7 +40083,7 @@
       <c r="BA7" s="52"/>
       <c r="BB7" s="52"/>
     </row>
-    <row r="8" spans="1:54" ht="16.5" customHeight="1">
+    <row r="8" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="50" t="s">
         <v>71</v>
       </c>
@@ -40205,7 +40195,7 @@
       <c r="BA8" s="52"/>
       <c r="BB8" s="52"/>
     </row>
-    <row r="9" spans="1:54" ht="16.5" customHeight="1">
+    <row r="9" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="53" t="s">
         <v>72</v>
       </c>
@@ -40263,7 +40253,7 @@
       <c r="BA9" s="54"/>
       <c r="BB9" s="54"/>
     </row>
-    <row r="10" spans="1:54" ht="16.5" customHeight="1">
+    <row r="10" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="50" t="s">
         <v>67</v>
       </c>
@@ -40377,7 +40367,7 @@
       <c r="BA10" s="56"/>
       <c r="BB10" s="56"/>
     </row>
-    <row r="11" spans="1:54" ht="16.5" customHeight="1">
+    <row r="11" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="50" t="s">
         <v>68</v>
       </c>
@@ -40489,7 +40479,7 @@
       <c r="BA11" s="56"/>
       <c r="BB11" s="56"/>
     </row>
-    <row r="12" spans="1:54" ht="16.5" customHeight="1">
+    <row r="12" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="50" t="s">
         <v>69</v>
       </c>
@@ -40601,7 +40591,7 @@
       <c r="BA12" s="56"/>
       <c r="BB12" s="56"/>
     </row>
-    <row r="13" spans="1:54" ht="16.5" customHeight="1">
+    <row r="13" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="50" t="s">
         <v>70</v>
       </c>
@@ -40713,7 +40703,7 @@
       <c r="BA13" s="56"/>
       <c r="BB13" s="56"/>
     </row>
-    <row r="14" spans="1:54" ht="16.5" customHeight="1">
+    <row r="14" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="50" t="s">
         <v>71</v>
       </c>
@@ -40825,7 +40815,7 @@
       <c r="BA14" s="56"/>
       <c r="BB14" s="56"/>
     </row>
-    <row r="15" spans="1:54" ht="16.5" customHeight="1">
+    <row r="15" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="47" t="s">
         <v>73</v>
       </c>
@@ -40883,7 +40873,7 @@
       <c r="BA15" s="58"/>
       <c r="BB15" s="58"/>
     </row>
-    <row r="16" spans="1:54" ht="16.5" customHeight="1">
+    <row r="16" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="50" t="s">
         <v>67</v>
       </c>
@@ -40995,7 +40985,7 @@
       <c r="BA16" s="59"/>
       <c r="BB16" s="59"/>
     </row>
-    <row r="17" spans="1:54" ht="16.5" customHeight="1">
+    <row r="17" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="50" t="s">
         <v>68</v>
       </c>
@@ -41107,7 +41097,7 @@
       <c r="BA17" s="59"/>
       <c r="BB17" s="59"/>
     </row>
-    <row r="18" spans="1:54" ht="16.5" customHeight="1">
+    <row r="18" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="50" t="s">
         <v>69</v>
       </c>
@@ -41219,7 +41209,7 @@
       <c r="BA18" s="59"/>
       <c r="BB18" s="59"/>
     </row>
-    <row r="19" spans="1:54" ht="16.5" customHeight="1">
+    <row r="19" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="50" t="s">
         <v>70</v>
       </c>
@@ -41331,7 +41321,7 @@
       <c r="BA19" s="59"/>
       <c r="BB19" s="59"/>
     </row>
-    <row r="20" spans="1:54" ht="16.5" customHeight="1" thickBot="1">
+    <row r="20" spans="1:54" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="60" t="s">
         <v>71</v>
       </c>
@@ -41443,233 +41433,233 @@
       <c r="BA20" s="59"/>
       <c r="BB20" s="59"/>
     </row>
-    <row r="21" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A21" s="79" t="s">
+    <row r="21" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="79"/>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="79"/>
-    </row>
-    <row r="22" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A22" s="80"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="80"/>
-      <c r="M22" s="80"/>
-      <c r="N22" s="80"/>
-      <c r="O22" s="80"/>
-      <c r="P22" s="80"/>
-      <c r="Q22" s="80"/>
-    </row>
-    <row r="23" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A23" s="80" t="s">
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
+    </row>
+    <row r="22" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="78"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="78"/>
+      <c r="P22" s="78"/>
+      <c r="Q22" s="78"/>
+    </row>
+    <row r="23" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="80"/>
-      <c r="P23" s="80"/>
-      <c r="Q23" s="80"/>
-    </row>
-    <row r="24" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A24" s="76" t="s">
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="78"/>
+      <c r="P23" s="78"/>
+      <c r="Q23" s="78"/>
+    </row>
+    <row r="24" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="76"/>
-      <c r="O24" s="76"/>
-      <c r="P24" s="76"/>
-      <c r="Q24" s="76"/>
-    </row>
-    <row r="25" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A25" s="76" t="s">
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="71"/>
+    </row>
+    <row r="25" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="76"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="76"/>
-      <c r="M25" s="76"/>
-      <c r="N25" s="76"/>
-      <c r="O25" s="76"/>
-      <c r="P25" s="76"/>
-      <c r="Q25" s="76"/>
-    </row>
-    <row r="26" spans="1:54" s="63" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A26" s="81" t="s">
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="71"/>
+    </row>
+    <row r="26" spans="1:54" s="63" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="81"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="81"/>
-      <c r="M26" s="81"/>
-      <c r="N26" s="81"/>
-      <c r="O26" s="81"/>
-      <c r="P26" s="81"/>
-      <c r="Q26" s="81"/>
-    </row>
-    <row r="27" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A27" s="81"/>
-      <c r="B27" s="81"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="81"/>
-      <c r="N27" s="81"/>
-      <c r="O27" s="81"/>
-      <c r="P27" s="81"/>
-      <c r="Q27" s="81"/>
-    </row>
-    <row r="28" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A28" s="82" t="s">
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="72"/>
+      <c r="Q26" s="72"/>
+    </row>
+    <row r="27" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="72"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="72"/>
+      <c r="Q27" s="72"/>
+    </row>
+    <row r="28" spans="1:54" s="63" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="82"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="82"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="82"/>
-      <c r="Q28" s="82"/>
-    </row>
-    <row r="29" spans="1:54" s="63" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A29" s="83" t="s">
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="73"/>
+      <c r="O28" s="73"/>
+      <c r="P28" s="73"/>
+      <c r="Q28" s="73"/>
+    </row>
+    <row r="29" spans="1:54" s="63" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="83"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
-      <c r="N29" s="83"/>
-      <c r="O29" s="83"/>
-      <c r="P29" s="83"/>
-      <c r="Q29" s="83"/>
-    </row>
-    <row r="33" customFormat="1"/>
-    <row r="34" customFormat="1"/>
-    <row r="35" customFormat="1"/>
-    <row r="36" customFormat="1"/>
-    <row r="37" customFormat="1"/>
-    <row r="38" customFormat="1"/>
-    <row r="39" customFormat="1"/>
-    <row r="40" customFormat="1"/>
-    <row r="41" customFormat="1"/>
-    <row r="42" customFormat="1"/>
-    <row r="43" customFormat="1"/>
-    <row r="44" customFormat="1"/>
-    <row r="45" customFormat="1"/>
-    <row r="46" customFormat="1"/>
-    <row r="47" customFormat="1"/>
-    <row r="48" customFormat="1"/>
-    <row r="49" customFormat="1"/>
-    <row r="50" customFormat="1"/>
-    <row r="51" customFormat="1"/>
-    <row r="52" customFormat="1"/>
-    <row r="53" customFormat="1"/>
-    <row r="54" customFormat="1"/>
-    <row r="55" customFormat="1"/>
-    <row r="56" customFormat="1"/>
-    <row r="57" customFormat="1"/>
-    <row r="58" customFormat="1"/>
-    <row r="59" customFormat="1"/>
-    <row r="60" customFormat="1"/>
-    <row r="61" customFormat="1"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="74"/>
+      <c r="O29" s="74"/>
+      <c r="P29" s="74"/>
+      <c r="Q29" s="74"/>
+    </row>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A25:Q25"/>
-    <mergeCell ref="A26:Q26"/>
-    <mergeCell ref="A27:Q27"/>
-    <mergeCell ref="A28:Q28"/>
-    <mergeCell ref="A29:Q29"/>
     <mergeCell ref="A24:Q24"/>
     <mergeCell ref="A1:AB1"/>
     <mergeCell ref="AC1:BB1"/>
     <mergeCell ref="A21:Q21"/>
     <mergeCell ref="A22:Q22"/>
     <mergeCell ref="A23:Q23"/>
+    <mergeCell ref="A25:Q25"/>
+    <mergeCell ref="A26:Q26"/>
+    <mergeCell ref="A27:Q27"/>
+    <mergeCell ref="A28:Q28"/>
+    <mergeCell ref="A29:Q29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -41683,20 +41673,20 @@
       <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.1640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" style="3" customWidth="1"/>
-    <col min="6" max="14" width="9.1640625" style="3"/>
-    <col min="15" max="15" width="15.5" style="3" customWidth="1"/>
-    <col min="16" max="16" width="22.5" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="9.1640625" style="3"/>
+    <col min="1" max="1" width="30.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" style="3" customWidth="1"/>
+    <col min="6" max="14" width="9.140625" style="3"/>
+    <col min="15" max="15" width="15.42578125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="22.5703125" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" customFormat="1" ht="16" thickBot="1">
+    <row r="1" spans="1:16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>52</v>
       </c>
@@ -41708,7 +41698,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" ht="64">
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -41724,15 +41714,15 @@
       <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="72" t="s">
+      <c r="O2" s="80" t="s">
         <v>851</v>
       </c>
-      <c r="P2" s="73">
+      <c r="P2" s="81">
         <f>'Table_38._Light-Duty_Vehicle_Sa'!F64*1000</f>
         <v>15397421.875</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="16" thickBot="1">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>13</v>
       </c>
@@ -41754,32 +41744,32 @@
       <c r="O3" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="P3" s="73">
+      <c r="P3" s="81">
         <f>SUM(Table_49._Freight_Transportatio!F204,Table_49._Freight_Transportatio!F215,Table_44._Transportation_Fleet_!F63)*1000</f>
         <v>1420967.1940000001</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O4" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="81" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="16" thickBot="1">
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>55</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>854</v>
       </c>
-      <c r="P5" s="73">
+      <c r="P5" s="81">
         <f>Table_49._Freight_Transportatio!F226*1000</f>
         <v>277987.51800000004</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="32">
+    <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>59</v>
       </c>
@@ -41794,7 +41784,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="16" thickBot="1">
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="68">
         <v>28</v>
       </c>
@@ -41809,7 +41799,7 @@
       </c>
       <c r="E7" s="67"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>56</v>
       </c>
@@ -41818,14 +41808,14 @@
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
     </row>
-    <row r="11" spans="1:16" s="9" customFormat="1">
+    <row r="11" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
     </row>
-    <row r="12" spans="1:16" s="9" customFormat="1">
+    <row r="12" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>34</v>
       </c>
@@ -41833,7 +41823,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="9" customFormat="1">
+    <row r="13" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>36</v>
       </c>
@@ -41841,7 +41831,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="9" customFormat="1" ht="16" thickBot="1">
+    <row r="14" spans="1:16" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>38</v>
       </c>
@@ -41849,17 +41839,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="9" customFormat="1">
+    <row r="15" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="9" customFormat="1" ht="16" thickBot="1">
+    <row r="16" spans="1:16" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>21</v>
       </c>
@@ -41868,7 +41858,7 @@
       <c r="D18" s="34"/>
       <c r="E18" s="34"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>10</v>
       </c>
@@ -41879,7 +41869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -41890,7 +41880,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16" thickBot="1">
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -41901,7 +41891,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16" thickBot="1">
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22" s="11" t="s">
         <v>26</v>
@@ -41910,17 +41900,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>13</v>
       </c>
@@ -41929,7 +41919,7 @@
       <c r="D26" s="34"/>
       <c r="E26" s="34"/>
     </row>
-    <row r="27" spans="1:5" ht="16" thickBot="1">
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>10</v>
       </c>
@@ -41940,7 +41930,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16" thickBot="1">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -41951,7 +41941,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="16" thickBot="1">
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>58</v>
       </c>
@@ -41960,7 +41950,7 @@
       <c r="D30" s="34"/>
       <c r="E30" s="34"/>
     </row>
-    <row r="31" spans="1:5" ht="32">
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
         <v>43</v>
       </c>
@@ -41977,7 +41967,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
         <v>1997</v>
       </c>
@@ -41990,7 +41980,7 @@
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="20">
         <v>1998</v>
       </c>
@@ -42009,7 +41999,7 @@
         <v>6.6484424338501588E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
         <v>1999</v>
       </c>
@@ -42028,7 +42018,7 @@
         <v>2.9143636995467476E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="20">
         <v>2000</v>
       </c>
@@ -42047,7 +42037,7 @@
         <v>6.8191523924614153E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="20">
         <v>2001</v>
       </c>
@@ -42066,7 +42056,7 @@
         <v>4.0815360868813244E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
         <v>2002</v>
       </c>
@@ -42085,7 +42075,7 @@
         <v>0.10769048766665149</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="20">
         <v>2003</v>
       </c>
@@ -42104,7 +42094,7 @@
         <v>5.9053805049687755E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="20">
         <v>2004</v>
       </c>
@@ -42123,7 +42113,7 @@
         <v>5.8670234757052138E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
         <v>2005</v>
       </c>
@@ -42142,7 +42132,7 @@
         <v>6.1781753631599455E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="20">
         <v>2006</v>
       </c>
@@ -42161,7 +42151,7 @@
         <v>6.5906687839630079E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16" thickBot="1">
+    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="25">
         <v>2007</v>
       </c>
@@ -42180,14 +42170,14 @@
         <v>5.9604038733197397E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
       <c r="E43"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>47</v>
       </c>
@@ -42195,7 +42185,7 @@
       <c r="C44"/>
       <c r="D44"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="28">
         <f>AVERAGE(E33:E42)</f>
         <v>5.8060812902328285E-2</v>
@@ -42204,13 +42194,13 @@
       <c r="C45"/>
       <c r="D45"/>
     </row>
-    <row r="46" spans="1:5" ht="16" thickBot="1">
+    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
     </row>
-    <row r="47" spans="1:5" ht="32">
+    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="36" t="s">
         <v>48</v>
       </c>
@@ -42218,7 +42208,7 @@
       <c r="C47"/>
       <c r="D47"/>
     </row>
-    <row r="48" spans="1:5" ht="16" thickBot="1">
+    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="35">
         <f>1/A45</f>
         <v>17.22332068760786</v>
@@ -42246,14 +42236,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="32">
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
         <v>100</v>
       </c>
@@ -42264,7 +42254,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -42276,11 +42266,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="74">
+      <c r="B3" s="82">
         <f>Calculations!C7</f>
         <v>23</v>
       </c>
@@ -42288,7 +42278,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -42301,7 +42291,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -42314,7 +42304,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -42327,7 +42317,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
